--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Dynacons Systems and Solutions Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Dynacons Systems and Solutions Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Yearly Results of Dynacons Systems and Solutions(in Rs. Cr.)</t>
   </si>
@@ -161,6 +161,81 @@
   </si>
   <si>
     <t>Mar '24</t>
+  </si>
+  <si>
+    <t>13.94</t>
+  </si>
+  <si>
+    <t>24.32</t>
+  </si>
+  <si>
+    <t>24.79</t>
+  </si>
+  <si>
+    <t>31.14</t>
+  </si>
+  <si>
+    <t>22.26</t>
+  </si>
+  <si>
+    <t>25.04</t>
+  </si>
+  <si>
+    <t>27.33</t>
+  </si>
+  <si>
+    <t>32.67</t>
+  </si>
+  <si>
+    <t>43.14</t>
+  </si>
+  <si>
+    <t>38.57</t>
+  </si>
+  <si>
+    <t>58.97</t>
+  </si>
+  <si>
+    <t>42.33</t>
+  </si>
+  <si>
+    <t>51.94</t>
+  </si>
+  <si>
+    <t>58.53</t>
+  </si>
+  <si>
+    <t>77.32</t>
+  </si>
+  <si>
+    <t>104.92</t>
+  </si>
+  <si>
+    <t>124.18</t>
+  </si>
+  <si>
+    <t>158.29</t>
+  </si>
+  <si>
+    <t>210.70</t>
+  </si>
+  <si>
+    <t>303.72</t>
+  </si>
+  <si>
+    <t>327.94</t>
+  </si>
+  <si>
+    <t>435.94</t>
+  </si>
+  <si>
+    <t>653.98</t>
+  </si>
+  <si>
+    <t>804.15</t>
+  </si>
+  <si>
+    <t>1,024.43</t>
   </si>
 </sst>
 </file>
@@ -602,17 +677,17 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
-        <v>13.94</v>
+      <c r="B2" t="s">
+        <v>49</v>
       </c>
       <c r="C2">
-        <v>203.6752173913044</v>
+        <v>203.68</v>
       </c>
       <c r="D2">
-        <v>-3.410869565217391</v>
+        <v>-3.41</v>
       </c>
       <c r="E2">
-        <v>13.19411764705882</v>
+        <v>13.19</v>
       </c>
       <c r="F2">
         <v>0.09</v>
@@ -621,28 +696,28 @@
         <v>12.43</v>
       </c>
       <c r="H2">
-        <v>10.22260869565217</v>
+        <v>10.22</v>
       </c>
       <c r="I2">
-        <v>0.9906666666666666</v>
+        <v>0.99</v>
       </c>
       <c r="J2">
-        <v>10.86521739130435</v>
+        <v>10.87</v>
       </c>
       <c r="K2">
         <v>0.11</v>
       </c>
       <c r="L2">
-        <v>7.88695652173913</v>
+        <v>7.89</v>
       </c>
       <c r="M2">
-        <v>7.88695652173913</v>
+        <v>7.89</v>
       </c>
       <c r="N2">
         <v>0.15</v>
       </c>
       <c r="O2">
-        <v>5.851304347826086</v>
+        <v>5.85</v>
       </c>
       <c r="P2">
         <v>1.16</v>
@@ -654,39 +729,39 @@
         <v>1.35</v>
       </c>
       <c r="S2">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="T2">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="U2">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="V2">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="W2">
-        <v>6.723333333333334</v>
+        <v>6.72</v>
       </c>
       <c r="X2">
-        <v>67.056</v>
+        <v>67.06</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3">
-        <v>24.32</v>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>203.6752173913044</v>
+        <v>203.68</v>
       </c>
       <c r="D3">
         <v>-0.12</v>
       </c>
       <c r="E3">
-        <v>13.19411764705882</v>
+        <v>13.19</v>
       </c>
       <c r="F3">
         <v>0.26</v>
@@ -695,28 +770,28 @@
         <v>22.75</v>
       </c>
       <c r="H3">
-        <v>10.22260869565217</v>
+        <v>10.22</v>
       </c>
       <c r="I3">
         <v>0.06</v>
       </c>
       <c r="J3">
-        <v>10.86521739130435</v>
+        <v>10.87</v>
       </c>
       <c r="K3">
         <v>0.13</v>
       </c>
       <c r="L3">
-        <v>7.88695652173913</v>
+        <v>7.89</v>
       </c>
       <c r="M3">
-        <v>7.88695652173913</v>
+        <v>7.89</v>
       </c>
       <c r="N3">
         <v>0.11</v>
       </c>
       <c r="O3">
-        <v>5.851304347826086</v>
+        <v>5.85</v>
       </c>
       <c r="P3">
         <v>1.25</v>
@@ -728,16 +803,16 @@
         <v>11.96</v>
       </c>
       <c r="S3">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="T3">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="U3">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="V3">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="W3">
         <v>0.7</v>
@@ -750,17 +825,17 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4">
-        <v>24.79</v>
+      <c r="B4" t="s">
+        <v>51</v>
       </c>
       <c r="C4">
         <v>24.79</v>
       </c>
       <c r="D4">
-        <v>-3.410869565217391</v>
+        <v>-3.41</v>
       </c>
       <c r="E4">
-        <v>13.19411764705882</v>
+        <v>13.19</v>
       </c>
       <c r="F4">
         <v>0.53</v>
@@ -772,7 +847,7 @@
         <v>0.92</v>
       </c>
       <c r="I4">
-        <v>0.9906666666666666</v>
+        <v>0.99</v>
       </c>
       <c r="J4">
         <v>0.92</v>
@@ -802,16 +877,16 @@
         <v>11.85</v>
       </c>
       <c r="S4">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="T4">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="U4">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="V4">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="W4">
         <v>3.5</v>
@@ -824,8 +899,8 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5">
-        <v>31.14</v>
+      <c r="B5" t="s">
+        <v>52</v>
       </c>
       <c r="C5">
         <v>31.14</v>
@@ -834,7 +909,7 @@
         <v>-2.38</v>
       </c>
       <c r="E5">
-        <v>13.19411764705882</v>
+        <v>13.19</v>
       </c>
       <c r="F5">
         <v>0.65</v>
@@ -876,16 +951,16 @@
         <v>3.34</v>
       </c>
       <c r="S5">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="T5">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="U5">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="V5">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="W5">
         <v>7.61</v>
@@ -898,8 +973,8 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6">
-        <v>22.26</v>
+      <c r="B6" t="s">
+        <v>53</v>
       </c>
       <c r="C6">
         <v>22.26</v>
@@ -908,7 +983,7 @@
         <v>0.51</v>
       </c>
       <c r="E6">
-        <v>13.19411764705882</v>
+        <v>13.19</v>
       </c>
       <c r="F6">
         <v>0.74</v>
@@ -950,16 +1025,16 @@
         <v>3.6</v>
       </c>
       <c r="S6">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="T6">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="U6">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="V6">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="W6">
         <v>10.83</v>
@@ -972,8 +1047,8 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7">
-        <v>25.04</v>
+      <c r="B7" t="s">
+        <v>54</v>
       </c>
       <c r="C7">
         <v>25.04</v>
@@ -982,7 +1057,7 @@
         <v>1.31</v>
       </c>
       <c r="E7">
-        <v>13.19411764705882</v>
+        <v>13.19</v>
       </c>
       <c r="F7">
         <v>0.87</v>
@@ -1009,7 +1084,7 @@
         <v>0.33</v>
       </c>
       <c r="N7">
-        <v>1.96375</v>
+        <v>1.96</v>
       </c>
       <c r="O7">
         <v>0.33</v>
@@ -1024,16 +1099,16 @@
         <v>3.93</v>
       </c>
       <c r="S7">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="T7">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="U7">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="V7">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="W7">
         <v>10.83</v>
@@ -1046,8 +1121,8 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8">
-        <v>27.33</v>
+      <c r="B8" t="s">
+        <v>55</v>
       </c>
       <c r="C8">
         <v>27.33</v>
@@ -1056,7 +1131,7 @@
         <v>-1.48</v>
       </c>
       <c r="E8">
-        <v>13.19411764705882</v>
+        <v>13.19</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1098,16 +1173,16 @@
         <v>4.12</v>
       </c>
       <c r="S8">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="T8">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="U8">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="V8">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="W8">
         <v>10.83</v>
@@ -1120,8 +1195,8 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9">
-        <v>32.67</v>
+      <c r="B9" t="s">
+        <v>56</v>
       </c>
       <c r="C9">
         <v>32.67</v>
@@ -1130,7 +1205,7 @@
         <v>0.02</v>
       </c>
       <c r="E9">
-        <v>13.19411764705882</v>
+        <v>13.19</v>
       </c>
       <c r="F9">
         <v>1.19</v>
@@ -1142,7 +1217,7 @@
         <v>0.77</v>
       </c>
       <c r="I9">
-        <v>0.9906666666666666</v>
+        <v>0.99</v>
       </c>
       <c r="J9">
         <v>0.77</v>
@@ -1172,16 +1247,16 @@
         <v>4.41</v>
       </c>
       <c r="S9">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="T9">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="U9">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="V9">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="W9">
         <v>10.83</v>
@@ -1194,8 +1269,8 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B10">
-        <v>43.14</v>
+      <c r="B10" t="s">
+        <v>57</v>
       </c>
       <c r="C10">
         <v>43.14</v>
@@ -1246,16 +1321,16 @@
         <v>4.72</v>
       </c>
       <c r="S10">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="T10">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="U10">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="V10">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="W10">
         <v>10.83</v>
@@ -1268,8 +1343,8 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11">
-        <v>38.57</v>
+      <c r="B11" t="s">
+        <v>58</v>
       </c>
       <c r="C11">
         <v>38.57</v>
@@ -1320,16 +1395,16 @@
         <v>5.04</v>
       </c>
       <c r="S11">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="T11">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="U11">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="V11">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="W11">
         <v>10.83</v>
@@ -1342,8 +1417,8 @@
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12">
-        <v>58.97</v>
+      <c r="B12" t="s">
+        <v>59</v>
       </c>
       <c r="C12">
         <v>58.97</v>
@@ -1394,16 +1469,16 @@
         <v>5.79</v>
       </c>
       <c r="S12">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="T12">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="U12">
-        <v>8.582857142857142</v>
+        <v>8.58</v>
       </c>
       <c r="V12">
-        <v>8.22857142857143</v>
+        <v>8.23</v>
       </c>
       <c r="W12">
         <v>10.73</v>
@@ -1416,8 +1491,8 @@
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13">
-        <v>42.33</v>
+      <c r="B13" t="s">
+        <v>60</v>
       </c>
       <c r="C13">
         <v>42.33</v>
@@ -1438,7 +1513,7 @@
         <v>2.09</v>
       </c>
       <c r="I13">
-        <v>0.9906666666666666</v>
+        <v>0.99</v>
       </c>
       <c r="J13">
         <v>2.09</v>
@@ -1490,8 +1565,8 @@
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14">
-        <v>51.94</v>
+      <c r="B14" t="s">
+        <v>61</v>
       </c>
       <c r="C14">
         <v>52.2</v>
@@ -1512,7 +1587,7 @@
         <v>2.66</v>
       </c>
       <c r="I14">
-        <v>0.9906666666666666</v>
+        <v>0.99</v>
       </c>
       <c r="J14">
         <v>2.66</v>
@@ -1564,8 +1639,8 @@
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15">
-        <v>58.53</v>
+      <c r="B15" t="s">
+        <v>62</v>
       </c>
       <c r="C15">
         <v>58.7</v>
@@ -1586,7 +1661,7 @@
         <v>1.96</v>
       </c>
       <c r="I15">
-        <v>0.9906666666666666</v>
+        <v>0.99</v>
       </c>
       <c r="J15">
         <v>1.96</v>
@@ -1638,8 +1713,8 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16">
-        <v>77.31999999999999</v>
+      <c r="B16" t="s">
+        <v>63</v>
       </c>
       <c r="C16">
         <v>77.65000000000001</v>
@@ -1660,7 +1735,7 @@
         <v>2.41</v>
       </c>
       <c r="I16">
-        <v>0.9906666666666666</v>
+        <v>0.99</v>
       </c>
       <c r="J16">
         <v>2.41</v>
@@ -1712,8 +1787,8 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17">
-        <v>104.92</v>
+      <c r="B17" t="s">
+        <v>64</v>
       </c>
       <c r="C17">
         <v>105.35</v>
@@ -1734,7 +1809,7 @@
         <v>2.97</v>
       </c>
       <c r="I17">
-        <v>0.9906666666666666</v>
+        <v>0.99</v>
       </c>
       <c r="J17">
         <v>2.97</v>
@@ -1786,8 +1861,8 @@
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18">
-        <v>124.18</v>
+      <c r="B18" t="s">
+        <v>65</v>
       </c>
       <c r="C18">
         <v>124.7</v>
@@ -1808,7 +1883,7 @@
         <v>3.83</v>
       </c>
       <c r="I18">
-        <v>0.9906666666666666</v>
+        <v>0.99</v>
       </c>
       <c r="J18">
         <v>3.83</v>
@@ -1850,18 +1925,18 @@
         <v>1.54</v>
       </c>
       <c r="W18">
-        <v>6.723333333333334</v>
+        <v>6.72</v>
       </c>
       <c r="X18">
-        <v>67.056</v>
+        <v>67.06</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19">
-        <v>158.29</v>
+      <c r="B19" t="s">
+        <v>66</v>
       </c>
       <c r="C19">
         <v>158.83</v>
@@ -1882,7 +1957,7 @@
         <v>4.27</v>
       </c>
       <c r="I19">
-        <v>0.9906666666666666</v>
+        <v>0.99</v>
       </c>
       <c r="J19">
         <v>4.27</v>
@@ -1924,18 +1999,18 @@
         <v>2.1</v>
       </c>
       <c r="W19">
-        <v>6.723333333333334</v>
+        <v>6.72</v>
       </c>
       <c r="X19">
-        <v>67.056</v>
+        <v>67.06</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20">
-        <v>210.7</v>
+      <c r="B20" t="s">
+        <v>67</v>
       </c>
       <c r="C20">
         <v>210.7</v>
@@ -1998,18 +2073,18 @@
         <v>2.06</v>
       </c>
       <c r="W20">
-        <v>6.723333333333334</v>
+        <v>6.72</v>
       </c>
       <c r="X20">
-        <v>67.056</v>
+        <v>67.06</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21">
-        <v>303.72</v>
+      <c r="B21" t="s">
+        <v>68</v>
       </c>
       <c r="C21">
         <v>303.72</v>
@@ -2072,18 +2147,18 @@
         <v>5.2</v>
       </c>
       <c r="W21">
-        <v>6.723333333333334</v>
+        <v>6.72</v>
       </c>
       <c r="X21">
-        <v>67.056</v>
+        <v>67.06</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22">
-        <v>327.94</v>
+      <c r="B22" t="s">
+        <v>69</v>
       </c>
       <c r="C22">
         <v>327.94</v>
@@ -2146,18 +2221,18 @@
         <v>6.67</v>
       </c>
       <c r="W22">
-        <v>6.723333333333334</v>
+        <v>6.72</v>
       </c>
       <c r="X22">
-        <v>67.056</v>
+        <v>67.06</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23">
-        <v>435.94</v>
+      <c r="B23" t="s">
+        <v>70</v>
       </c>
       <c r="C23">
         <v>435.94</v>
@@ -2220,18 +2295,18 @@
         <v>7.88</v>
       </c>
       <c r="W23">
-        <v>6.723333333333334</v>
+        <v>6.72</v>
       </c>
       <c r="X23">
-        <v>67.056</v>
+        <v>67.06</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B24">
-        <v>653.98</v>
+      <c r="B24" t="s">
+        <v>71</v>
       </c>
       <c r="C24">
         <v>653.98</v>
@@ -2294,18 +2369,18 @@
         <v>13.59</v>
       </c>
       <c r="W24">
-        <v>6.723333333333334</v>
+        <v>6.72</v>
       </c>
       <c r="X24">
-        <v>67.056</v>
+        <v>67.06</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
         <v>47</v>
       </c>
-      <c r="B25">
-        <v>804.15</v>
+      <c r="B25" t="s">
+        <v>72</v>
       </c>
       <c r="C25">
         <v>804.15</v>
@@ -2368,18 +2443,18 @@
         <v>27.64</v>
       </c>
       <c r="W25">
-        <v>6.723333333333334</v>
+        <v>6.72</v>
       </c>
       <c r="X25">
-        <v>67.056</v>
+        <v>67.06</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="B26">
-        <v>154.0045833333333</v>
+      <c r="B26" t="s">
+        <v>73</v>
       </c>
       <c r="C26">
         <v>1024.43</v>
@@ -2442,10 +2517,10 @@
         <v>42.47</v>
       </c>
       <c r="W26">
-        <v>6.723333333333334</v>
+        <v>6.72</v>
       </c>
       <c r="X26">
-        <v>67.056</v>
+        <v>67.06</v>
       </c>
     </row>
   </sheetData>
